--- a/K12.Sports.FitnessImportExport/Resources/全校體適能中等以上(含中等)各項目百分比統計表.xlsx
+++ b/K12.Sports.FitnessImportExport/Resources/全校體適能中等以上(含中等)各項目百分比統計表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>班級</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>心肺適能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四項達成率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -418,16 +422,17 @@
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,6 +447,9 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
